--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/国家资本金.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/国家资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>298.07755</v>
-      </c>
-      <c r="C2" t="n">
-        <v>730.83574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.40615</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.19172</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14.84521</v>
-      </c>
-      <c r="G2" t="n">
-        <v>885.13354</v>
-      </c>
-      <c r="H2" t="n">
-        <v>178.72427</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191.66104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>114.41858</v>
-      </c>
-      <c r="K2" t="n">
-        <v>69.77987</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11.70596</v>
-      </c>
-      <c r="M2" t="n">
-        <v>10.64226</v>
-      </c>
-      <c r="N2" t="n">
-        <v>392.15037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>367.17225</v>
-      </c>
-      <c r="P2" t="n">
-        <v>84.63122</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>42.59174</v>
-      </c>
-      <c r="R2" t="n">
-        <v>44.22628</v>
-      </c>
-      <c r="S2" t="n">
-        <v>96.50112</v>
-      </c>
-      <c r="T2" t="n">
-        <v>86.20835</v>
-      </c>
-      <c r="U2" t="n">
-        <v>314.45345</v>
-      </c>
-      <c r="V2" t="n">
-        <v>250.86207</v>
-      </c>
-      <c r="W2" t="n">
-        <v>889.96932</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2129.16455</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>322.19722</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>237.12644</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20.26119</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>279.80349</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1468.26199</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>392.68882</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>478.73771</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13961.74872</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>170.49826</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>108.64299</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>512.96764</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>125.41804</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>113.57088</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>262.58902</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>241.38596</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1810.04254</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>106.63868</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>313.71949</v>
-      </c>
-      <c r="C3" t="n">
-        <v>688.18487</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.42882</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.18821</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15.47331</v>
-      </c>
-      <c r="G3" t="n">
-        <v>833.53548</v>
-      </c>
-      <c r="H3" t="n">
-        <v>112.12321</v>
-      </c>
-      <c r="I3" t="n">
-        <v>200.15121</v>
-      </c>
-      <c r="J3" t="n">
-        <v>124.32434</v>
-      </c>
-      <c r="K3" t="n">
-        <v>86.1026</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.35793</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10.96007</v>
-      </c>
-      <c r="N3" t="n">
-        <v>363.93914</v>
-      </c>
-      <c r="O3" t="n">
-        <v>362.98456</v>
-      </c>
-      <c r="P3" t="n">
-        <v>77.52933</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>41.09616</v>
-      </c>
-      <c r="R3" t="n">
-        <v>47.45037</v>
-      </c>
-      <c r="S3" t="n">
-        <v>91.39669000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>86.37257</v>
-      </c>
-      <c r="U3" t="n">
-        <v>320.60615</v>
-      </c>
-      <c r="V3" t="n">
-        <v>246.89269</v>
-      </c>
-      <c r="W3" t="n">
-        <v>987.7554</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2272.03914</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>335.25272</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>242.14174</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>18.877</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>370.53741</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1543.71452</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>370.78119</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>470.90478</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14206.30327</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>193.54614</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>101.83348</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>477.57717</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>153.49773</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>92.76947</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>231.79339</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>226.74358</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1881.03055</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>105.58722</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>329.45581</v>
-      </c>
-      <c r="C4" t="n">
-        <v>814.61106</v>
-      </c>
-      <c r="D4" t="n">
-        <v>67.34551999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.21349</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.73527</v>
-      </c>
-      <c r="G4" t="n">
-        <v>785.58219</v>
-      </c>
-      <c r="H4" t="n">
-        <v>126.17553</v>
-      </c>
-      <c r="I4" t="n">
-        <v>246.07189</v>
-      </c>
-      <c r="J4" t="n">
-        <v>109.20295</v>
-      </c>
-      <c r="K4" t="n">
-        <v>83.44646</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.85362</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.872170000000001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>361.15572</v>
-      </c>
-      <c r="O4" t="n">
-        <v>372.48077</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76.72487</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>39.88172</v>
-      </c>
-      <c r="R4" t="n">
-        <v>43.8728</v>
-      </c>
-      <c r="S4" t="n">
-        <v>86.80141</v>
-      </c>
-      <c r="T4" t="n">
-        <v>76.85653000000001</v>
-      </c>
-      <c r="U4" t="n">
-        <v>319.90746</v>
-      </c>
-      <c r="V4" t="n">
-        <v>250.83175</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1254.03083</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2201.79949</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>337.06509</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>214.32759</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>14.29626</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>455.00041</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>916.7729</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>357.06422</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>533.3416</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13532.90535</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>211.55686</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>101.99952</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>475.47202</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>136.15742</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>93.07774999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>206.91333</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>213.30891</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1445.86533</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>103.45719</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
